--- a/results tracker.xlsx
+++ b/results tracker.xlsx
@@ -516,7 +516,7 @@
   <dimension ref="B1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
